--- a/Uploads/TagDemo/DHLdemo.xlsx
+++ b/Uploads/TagDemo/DHLdemo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22620" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22620" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,35 +16,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">    TO：</t>
+    <t>国家</t>
   </si>
   <si>
-    <t xml:space="preserve">   Zip:</t>
+    <t>条码单号</t>
   </si>
   <si>
-    <t xml:space="preserve">  tel：</t>
+    <t>渠道：</t>
   </si>
   <si>
-    <t xml:space="preserve">  国家：</t>
+    <t>是否带电</t>
   </si>
   <si>
-    <t>渠道</t>
+    <t>客户代码：</t>
   </si>
   <si>
-    <t>客户内部编码</t>
-  </si>
-  <si>
-    <t>系统生成单号位置</t>
+    <t>地址：</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>条码位置</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注:</t>
+    <t>件数</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -221,6 +214,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -260,27 +266,81 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -293,74 +353,62 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -368,23 +416,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,9 +444,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>620395</xdr:colOff>
+      <xdr:colOff>667385</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -431,7 +464,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="28575" y="234950"/>
-          <a:ext cx="4020820" cy="771525"/>
+          <a:ext cx="4067810" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -734,206 +767,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
     <row r="2" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="24"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="25"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="26"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+    </row>
+    <row r="8" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+    </row>
+    <row r="10" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+    </row>
+    <row r="11" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="9" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+    </row>
+    <row r="14" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8" t="s">
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-    </row>
-    <row r="14" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-    </row>
-    <row r="15" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-    </row>
-    <row r="16" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="17" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="38" t="s">
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-    </row>
-    <row r="18" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C5:G6"/>
+  <mergeCells count="14">
     <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G16"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="B15:G16"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="B7:G10"/>
     <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C11:G11"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.35416666666666702" right="7.8472222222222193E-2" top="0.156944444444444" bottom="0.75" header="0.118055555555556" footer="0.3"/>
